--- a/testing/testing_subsets/Fitness_only_subset/input/plate_layout.xlsx
+++ b/testing/testing_subsets/Fitness_only_subset/input/plate_layout.xlsx
@@ -617,8 +617,8 @@
   </sheetPr>
   <dimension ref="B2:N402"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q11" activeCellId="0" sqref="Q11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O44" activeCellId="0" sqref="O44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1499,7 +1499,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E50" s="12" t="s">
         <v>9</v>
       </c>
@@ -3646,7 +3646,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
